--- a/uploads/ProductTemplate.xlsx
+++ b/uploads/ProductTemplate.xlsx
@@ -566,22 +566,22 @@
   </sheetData>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" sqref="A10:A100">
-      <formula1>"fabrics 2,ABCD,fabrics,Cloting,Cloth"</formula1>
+      <formula1>"fabrics"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="A2:A100">
-      <formula1>"fabrics 2,ABCD,fabrics,Cloting,Cloth"</formula1>
+      <formula1>"fabrics"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="B10:B100">
-      <formula1>"fab 3 (ABCD),tshirts (Cloting),jeans (Cloth)"</formula1>
+      <formula1>"test (fabrics)"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="B2:B100">
-      <formula1>"fab 3 (ABCD),tshirts (Cloting),jeans (Cloth)"</formula1>
+      <formula1>"test (fabrics)"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C10:C100">
-      <formula1>"meter,cm,size"</formula1>
+      <formula1>"Meter(1m,2m,etc.),Reel(100m,200m),Pack(size 9-12),Tailor Scissors"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C2:C100">
-      <formula1>"meter,cm,size"</formula1>
+      <formula1>"Meter(1m,2m,etc.),Reel(100m,200m),Pack(size 9-12),Tailor Scissors"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="L10:L100">
       <formula1>"Yes,No"</formula1>
